--- a/Split Kyeboard BOM.xlsx
+++ b/Split Kyeboard BOM.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
   <si>
     <t>KIT Items</t>
   </si>
@@ -49,7 +49,7 @@
     <t>Diodes</t>
   </si>
   <si>
-    <t>https://www.aliexpress.com/item/1005007160563285.html?spm=a2g0o.productlist.main.1.49d427f8e6gamU&amp;algo_pvid=d1cf5dea-2ffe-40eb-a659-246c3557b810&amp;pdp_ext_f=%7B%22order%22%3A%22214%22%2C%22eval%22%3A%221%22%2C%22fromPage%22%3A%22search%22%7D&amp;utparam-url=scene%3Asearch%7Cquery_from%3A%7Cx_object_id%3A1005007160563285%7C_p_origin_prod%3A</t>
+    <t>https://www.aliexpress.com/item/1005007160279747.html?spm=a2g0o.productlist.main.1.22304822ae9taT&amp;algo_pvid=f4c554f1-c455-4c9a-9782-f7b60fc6d5bb&amp;pdp_ext_f=%7B%22order%22%3A%2299%22%2C%22eval%22%3A%221%22%2C%22fromPage%22%3A%22search%22%7D&amp;utparam-url=scene%3Asearch%7Cquery_from%3A%7Cx_object_id%3A1005007160279747%7C_p_origin_prod%3A</t>
   </si>
   <si>
     <t>trrs jack</t>
@@ -67,22 +67,16 @@
     <t>Hot swap for the switches</t>
   </si>
   <si>
-    <t>12.24</t>
-  </si>
-  <si>
-    <t>https://www.aliexpress.com/item/1005006152044565.html?spm=a2g0o.productlist.main.6.68c15c4fj3IHst&amp;aem_p4p_detail=202512052249552131964895444300001363146&amp;algo_pvid=feb6e4b4-d586-4b27-991f-c9c18e1f76e2&amp;pdp_ext_f=%7B%22order%22%3A%2215%22%2C%22eval%22%3A%221%22%2C%22fromPage%22%3A%22search%22%7D&amp;utparam-url=scene%3Asearch%7Cquery_from%3A%7Cx_object_id%3A1005006152044565%7C_p_origin_prod%3A&amp;search_p4p_id=202512052249552131964895444300001363146_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Akko Creamy Cyan </t>
+    <t>https://www.aliexpress.com/item/1005006610157756.html?spm=a2g0o.productlist.main.9.38bc50b5kyuRi5&amp;algo_pvid=be244f2e-ac60-42cf-8ede-f174e89223a1&amp;pdp_ext_f=%7B%22order%22%3A%22158%22%2C%22eval%22%3A%221%22%2C%22fromPage%22%3A%22search%22%7D&amp;utparam-url=scene%3Asearch%7Cquery_from%3A%7Cx_object_id%3A1005006610157756%7C_p_origin_prod%3A</t>
+  </si>
+  <si>
+    <t>Akko Creamy Blue</t>
   </si>
   <si>
     <t>Switch</t>
   </si>
   <si>
-    <t>19.52</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Akko-Keyboard-Diffuser-Mechanical-Structure/dp/B0DJNSK6TD/ref=sr_1_42?sr=8-42</t>
+    <t>https://www.aliexpress.com/item/1005006382591392.html?spm=a2g0o.productlist.0.0.6c9fnDJunDJu8K&amp;mp=1</t>
   </si>
   <si>
     <t>Oled display</t>
@@ -91,7 +85,7 @@
     <t>0.91 inch oled display (white)</t>
   </si>
   <si>
-    <t>https://www.aliexpress.com/item/1005007401670702.html?spm=a2g0o.productlist.main.1.1a7f15eb72R9CW&amp;algo_pvid=a2c0b4eb-a509-43ec-9b56-de7d656d2928&amp;pdp_ext_f=%7B%22order%22%3A%2232%22%2C%22eval%22%3A%221%22%2C%22fromPage%22%3A%22search%22%7D&amp;utparam-url=scene%3Asearch%7Cquery_from%3A%7Cx_object_id%3A1005007401670702%7C_p_origin_prod%3A</t>
+    <t>https://www.aliexpress.com/item/1005008918700196.html?spm=a2g0o.productlist.main.2.aa9f73e59kPfvL&amp;algo_pvid=6abceb6f-e678-4bb3-a5e7-ac52308a9bd5&amp;pdp_ext_f=%7B%22order%22%3A%22380%22%2C%22eval%22%3A%221%22%2C%22fromPage%22%3A%22search%22%7D&amp;utparam-url=scene%3Asearch%7Cquery_from%3A%7Cx_object_id%3A1005008918700196%7C_p_origin_prod%3A</t>
   </si>
   <si>
     <t>M2 screw</t>
@@ -103,15 +97,6 @@
     <t>https://www.aliexpress.com/item/1005005070119421.html?spm=a2g0o.productlist.main.6.5ae95acdXyxAzO&amp;algo_pvid=7b80bd85-60b3-451d-ab83-8cb025dd266f&amp;pdp_ext_f=%7B%22order%22%3A%228711%22%2C%22eval%22%3A%221%22%2C%22fromPage%22%3A%22search%22%7D&amp;utparam-url=scene%3Asearch%7Cquery_from%3A%7Cx_object_id%3A1005005070119421%7C_p_origin_prod%3A</t>
   </si>
   <si>
-    <t>Keycaps</t>
-  </si>
-  <si>
-    <t>I fell in love with this keycaps</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/YMKPVR-Dye-Sublimation-Keyboard-Mechanical-Keyboards/dp/B0DGLB9SDZ/ref=sr_1_9?sr=8-9</t>
-  </si>
-  <si>
     <t>Trrs Cable</t>
   </si>
   <si>
@@ -121,22 +106,16 @@
     <t>https://www.amazon.ca/Coiled-Stereo-Haokiang-Extension-Headset/dp/B07FFW8YZR/ref=sr_1_13?sr=8-13</t>
   </si>
   <si>
-    <t>Usb c cable</t>
-  </si>
-  <si>
-    <t>usb c to usb c cable</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Lexonelec-Keyboard-Mechanical-Detachable-Double-Sleeved/dp/B0BNYTQ6T8/ref=sr_1_1?sr=8-1</t>
-  </si>
-  <si>
     <t>M2 standoff</t>
   </si>
   <si>
     <t>M2 standoff 10mm</t>
   </si>
   <si>
-    <t>https://www.aliexpress.com/item/1005007204099506.html?spm=a2g0o.productlist.main.9.618871ddxPinO4&amp;algo_pvid=fd1cc0a4-cd1d-4a0f-9683-53e31e512b25&amp;aem_p4p_detail=2025120620133211797859144447520002158300&amp;pdp_ext_f=%7B%22order%22%3A%2224%22%2C%22eval%22%3A%221%22%2C%22fromPage%22%3A%22search%22%7D&amp;utparam-url=scene%3Asearch%7Cquery_from%3A%7Cx_object_id%3A1005007204099506%7C_p_origin_prod%3A&amp;search_p4p_id=2025120620133211797859144447520002158300_4</t>
+    <t>2.76</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/1005008798318304.html?spm=a2g0o.productlist.main.1.181d71ddvmxbc2&amp;algo_pvid=71512421-2cfd-4303-9ff7-12baccfd3a37&amp;aem_p4p_detail=202512062349391888838274516030002115181&amp;pdp_ext_f=%7B%22order%22%3A%22532%22%2C%22eval%22%3A%221%22%2C%22fromPage%22%3A%22search%22%7D&amp;utparam-url=scene%3Asearch%7Cquery_from%3A%7Cx_object_id%3A1005008798318304%7C_p_origin_prod%3A&amp;search_p4p_id=202512062349391888838274516030002115181_1</t>
   </si>
   <si>
     <t>Switches</t>
@@ -145,19 +124,28 @@
     <t>Reset switch</t>
   </si>
   <si>
-    <t>https://www.aliexpress.com/item/1005006195727309.html?spm=a2g0o.productlist.main.4.72cdd9cfnzilaB&amp;aem_p4p_detail=202512062306311470377945509020002231953&amp;algo_pvid=b978a2e5-f6ab-4a96-8731-90303f332bca&amp;pdp_ext_f=%7B%22order%22%3A%22116%22%2C%22eval%22%3A%221%22%2C%22fromPage%22%3A%22search%22%7D&amp;utparam-url=scene%3Asearch%7Cquery_from%3A%7Cx_object_id%3A1005006195727309%7C_p_origin_prod%3A&amp;search_p4p_id=202512062306311470377945509020002231953_1</t>
-  </si>
-  <si>
-    <t>Aliexpress shipping</t>
-  </si>
-  <si>
-    <t>shipping aliexpress</t>
-  </si>
-  <si>
-    <t>Amazon shipping</t>
-  </si>
-  <si>
-    <t>shipping amazon</t>
+    <t>https://www.aliexpress.com/item/1005009739698023.html?spm=a2g0o.productlist.main.2.3db27156A9zIgu&amp;algo_pvid=5ccd299d-bc42-4e1b-a1f3-9ce498b12316&amp;pdp_ext_f=%7B%22order%22%3A%2241%22%2C%22eval%22%3A%221%22%2C%22fromPage%22%3A%22search%22%7D&amp;utparam-url=scene%3Asearch%7Cquery_from%3A%7Cx_object_id%3A1005009739698023%7C_p_origin_prod%3A</t>
+  </si>
+  <si>
+    <t>Usb c calbe</t>
+  </si>
+  <si>
+    <t>usdb cable</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/1005005315398342.html?spm=a2g0o.detail.0.0.6146jeKAjeKAgM&amp;mp=1</t>
+  </si>
+  <si>
+    <t>Rubber feet</t>
+  </si>
+  <si>
+    <t>rubber feet for the keyboard</t>
+  </si>
+  <si>
+    <t>taxes</t>
+  </si>
+  <si>
+    <t>aliexpress tax</t>
   </si>
   <si>
     <t>Components</t>
@@ -184,20 +172,15 @@
     <t>Shipping for PCB</t>
   </si>
   <si>
-    <t>GRAND TOTAL</t>
-  </si>
-  <si>
-    <t>(CAD)</t>
+    <t xml:space="preserve">Total </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="165" formatCode="#,##0.000"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -263,81 +246,103 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="2" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -352,12 +357,12 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4772025" cy="2752725"/>
+    <xdr:ext cx="7505700" cy="2238375"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="0" name="image1.png" title="Imagen"/>
@@ -365,6 +370,34 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>4019550</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4876800" cy="5772150"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image2.png" title="Imagen"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -607,390 +640,364 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="D2" s="7">
+        <v>6.09</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D3" s="6">
-        <v>6.09</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0.0434</v>
+      </c>
+      <c r="E3" s="10">
+        <v>4.34</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="6">
-        <v>100.0</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0.0434</v>
-      </c>
-      <c r="E4" s="9">
-        <v>4.34</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="C4" s="7">
+        <v>10.0</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0.304</v>
+      </c>
+      <c r="E4" s="7">
+        <v>3.04</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="D5" s="11">
-        <v>0.304</v>
-      </c>
-      <c r="E5" s="6">
-        <v>3.04</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="C5" s="7">
+        <v>50.0</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0.16</v>
+      </c>
+      <c r="E5" s="7">
+        <v>7.79</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="s">
-        <v>16</v>
+      <c r="A6" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="6">
-        <v>50.0</v>
-      </c>
-      <c r="D6" s="8">
-        <v>0.2448</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="C6" s="7">
+        <v>45.0</v>
+      </c>
+      <c r="D6" s="9">
+        <f>E6/45</f>
+        <v>0.5286666667</v>
+      </c>
+      <c r="E6" s="7">
+        <v>23.79</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="12" t="s">
-        <v>20</v>
+      <c r="A7" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="6">
-        <v>45.0</v>
-      </c>
-      <c r="D7" s="8">
-        <v>0.4337</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="10" t="s">
         <v>23</v>
+      </c>
+      <c r="C7" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>3.31</v>
+      </c>
+      <c r="E7" s="7">
+        <f>D7 *2</f>
+        <v>6.62</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D8" s="6">
-        <v>2.08</v>
-      </c>
-      <c r="E8" s="6">
-        <v>4.16</v>
-      </c>
-      <c r="F8" s="10" t="s">
         <v>26</v>
+      </c>
+      <c r="C8" s="7">
+        <v>50.0</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0.0602</v>
+      </c>
+      <c r="E8" s="13">
+        <v>3.01</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="6">
-        <v>50.0</v>
+      <c r="B9" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1.0</v>
       </c>
       <c r="D9" s="13">
-        <v>0.0602</v>
-      </c>
-      <c r="E9" s="14">
-        <v>3.01</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>29</v>
+        <v>3.84</v>
+      </c>
+      <c r="E9" s="13">
+        <v>3.84</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="4">
-        <v>131.0</v>
-      </c>
-      <c r="D10" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="E10" s="14">
-        <v>32.99</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="B10" s="14" t="s">
         <v>32</v>
       </c>
+      <c r="C10" s="14">
+        <v>15.0</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0.184</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="6">
+      <c r="A11" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="14">
+        <v>20.0</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0.1995</v>
+      </c>
+      <c r="E11" s="14">
+        <v>3.99</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="14">
         <v>1.0</v>
       </c>
-      <c r="D11" s="16">
-        <v>9.99</v>
-      </c>
-      <c r="E11" s="14">
-        <v>9.99</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="D12" s="16">
-        <v>12.77</v>
-      </c>
-      <c r="E12" s="16">
-        <v>12.77</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>38</v>
+      <c r="D12" s="14">
+        <v>9.08</v>
+      </c>
+      <c r="E12" s="14">
+        <v>9.08</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="17" t="s">
+      <c r="A13" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18">
+        <f>E13 / 50</f>
+        <v>0.059</v>
+      </c>
+      <c r="E13" s="14">
+        <v>2.95</v>
+      </c>
+      <c r="F13" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="17">
+    </row>
+    <row r="14">
+      <c r="A14" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="14">
         <v>5.0</v>
       </c>
-      <c r="D13" s="16">
-        <v>0.282</v>
-      </c>
-      <c r="E13" s="16">
-        <v>1.41</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="17">
-        <v>20.0</v>
-      </c>
-      <c r="D14" s="16">
-        <v>0.073</v>
-      </c>
-      <c r="E14" s="17">
-        <v>1.46</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="15">
-      <c r="A15" s="17" t="s">
+      <c r="D15" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="E15" s="20">
+        <f>SUM(E2:E14)</f>
+        <v>73.45</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="D15" s="17">
-        <v>10.0</v>
-      </c>
-      <c r="E15" s="17">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="17" t="s">
+      <c r="B18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="E18" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="D16" s="17">
-        <v>10.0</v>
-      </c>
-      <c r="E16" s="17">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="D17" s="17" t="s">
+      <c r="F18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="20">
-        <f>SUM(E2:E16)</f>
-        <v>93.17</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="B20" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="24"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="B21" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="s">
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="21"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="21"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="26"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="21"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="3"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="23">
-        <f>SUM(E3:E16) + 15.72</f>
-        <v>108.89</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="B31" s="20">
+        <f>E15+15.72</f>
+        <v>89.17</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="F3"/>
-    <hyperlink r:id="rId2" ref="F4"/>
-    <hyperlink r:id="rId3" ref="F5"/>
-    <hyperlink r:id="rId4" ref="F6"/>
-    <hyperlink r:id="rId5" ref="F7"/>
-    <hyperlink r:id="rId6" ref="F8"/>
-    <hyperlink r:id="rId7" ref="F9"/>
-    <hyperlink r:id="rId8" ref="F10"/>
-    <hyperlink r:id="rId9" ref="F11"/>
-    <hyperlink r:id="rId10" ref="F12"/>
-    <hyperlink r:id="rId11" ref="F13"/>
-    <hyperlink r:id="rId12" ref="F14"/>
+    <hyperlink r:id="rId1" ref="F2"/>
+    <hyperlink r:id="rId2" ref="F3"/>
+    <hyperlink r:id="rId3" ref="F4"/>
+    <hyperlink r:id="rId4" ref="F5"/>
+    <hyperlink r:id="rId5" ref="F6"/>
+    <hyperlink r:id="rId6" ref="F7"/>
+    <hyperlink r:id="rId7" ref="F8"/>
+    <hyperlink r:id="rId8" ref="F9"/>
+    <hyperlink r:id="rId9" ref="F10"/>
+    <hyperlink r:id="rId10" ref="F11"/>
+    <hyperlink r:id="rId11" ref="F12"/>
+    <hyperlink r:id="rId12" ref="F13"/>
   </hyperlinks>
   <drawing r:id="rId13"/>
 </worksheet>

--- a/Split Kyeboard BOM.xlsx
+++ b/Split Kyeboard BOM.xlsx
@@ -386,11 +386,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>4019550</xdr:rowOff>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>-85725</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4876800" cy="5772150"/>
+    <xdr:ext cx="4867275" cy="5800725"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="0" name="image2.png" title="Imagen"/>
